--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,10 +443,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:21:42</v>
+        <v>16:37:28</v>
       </c>
       <c r="F2" t="str">
-        <v>r</v>
+        <v>172718-5121</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -460,10 +460,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>16:20:13</v>
+        <v>16:36:52</v>
       </c>
       <c r="F3" t="str">
-        <v>172718-5121</v>
+        <v>r</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -477,7 +477,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>16:18:39</v>
+        <v>16:21:42</v>
       </c>
       <c r="F4" t="str">
         <v>r</v>
@@ -494,7 +494,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>16:11:13</v>
+        <v>16:20:13</v>
       </c>
       <c r="F5" t="str">
         <v>172718-5121</v>
@@ -511,10 +511,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>16:08:27</v>
+        <v>16:18:39</v>
       </c>
       <c r="F6" t="str">
-        <v>172718-5121</v>
+        <v>r</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -528,7 +528,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>16:07:55</v>
+        <v>16:11:13</v>
       </c>
       <c r="F7" t="str">
         <v>172718-5121</v>
@@ -545,7 +545,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>16:06:11</v>
+        <v>16:08:27</v>
       </c>
       <c r="F8" t="str">
         <v>172718-5121</v>
@@ -562,7 +562,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>16:00:22</v>
+        <v>16:07:55</v>
       </c>
       <c r="F9" t="str">
         <v>172718-5121</v>
@@ -579,10 +579,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>15:16:42</v>
+        <v>16:06:11</v>
       </c>
       <c r="F10" t="str">
-        <v>r</v>
+        <v>172718-5121</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -596,10 +596,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>15:13:58</v>
+        <v>16:00:22</v>
       </c>
       <c r="F11" t="str">
-        <v>c</v>
+        <v>172718-5121</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -613,10 +613,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>15:13:30</v>
+        <v>15:16:42</v>
       </c>
       <c r="F12" t="str">
-        <v>a</v>
+        <v>r</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -630,10 +630,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>15:12:58</v>
+        <v>15:13:58</v>
       </c>
       <c r="F13" t="str">
-        <v>227028-8400</v>
+        <v>c</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -647,10 +647,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>15:12:56</v>
+        <v>15:13:30</v>
       </c>
       <c r="F14" t="str">
-        <v>172718-5121</v>
+        <v>a</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -664,7 +664,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>15:10:51</v>
+        <v>15:12:58</v>
       </c>
       <c r="F15" t="str">
         <v>227028-8400</v>
@@ -681,7 +681,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>15:10:46</v>
+        <v>15:12:56</v>
       </c>
       <c r="F16" t="str">
         <v>172718-5121</v>
@@ -698,10 +698,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>15:08:24</v>
+        <v>15:10:51</v>
       </c>
       <c r="F17" t="str">
-        <v>172718-5121</v>
+        <v>227028-8400</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -715,7 +715,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>14:55:15</v>
+        <v>15:10:46</v>
       </c>
       <c r="F18" t="str">
         <v>172718-5121</v>
@@ -732,7 +732,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>14:52:05</v>
+        <v>15:08:24</v>
       </c>
       <c r="F19" t="str">
         <v>172718-5121</v>
@@ -749,21 +749,55 @@
         <v>17/12/2025</v>
       </c>
       <c r="B20" t="str">
+        <v>14:55:15</v>
+      </c>
+      <c r="F20" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B21" t="str">
+        <v>14:52:05</v>
+      </c>
+      <c r="F21" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B22" t="str">
         <v>14:50:29</v>
       </c>
-      <c r="F20" t="str">
-        <v>172718-5121</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
+      <c r="F22" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
@@ -443,10 +443,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:37:28</v>
+        <v>17:29:59</v>
       </c>
       <c r="F2" t="str">
-        <v>172718-5121</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -460,7 +460,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>16:36:52</v>
+        <v>17:29:40</v>
       </c>
       <c r="F3" t="str">
         <v>r</v>
@@ -477,10 +477,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>16:21:42</v>
+        <v>17:29:23</v>
       </c>
       <c r="F4" t="str">
-        <v>r</v>
+        <v>c</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -494,10 +494,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>16:20:13</v>
+        <v>17:23:38</v>
       </c>
       <c r="F5" t="str">
-        <v>172718-5121</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -511,10 +511,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>16:18:39</v>
+        <v>17:21:03</v>
       </c>
       <c r="F6" t="str">
-        <v>r</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -528,10 +528,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>16:11:13</v>
+        <v>17:20:31</v>
       </c>
       <c r="F7" t="str">
-        <v>172718-5121</v>
+        <v>c</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -545,10 +545,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>16:08:27</v>
+        <v>17:18:46</v>
       </c>
       <c r="F8" t="str">
-        <v>172718-5121</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -562,10 +562,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>16:07:55</v>
+        <v>17:17:56</v>
       </c>
       <c r="F9" t="str">
-        <v>172718-5121</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -579,7 +579,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>16:06:11</v>
+        <v>16:57:41</v>
       </c>
       <c r="F10" t="str">
         <v>172718-5121</v>
@@ -596,10 +596,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>16:00:22</v>
+        <v>16:46:07</v>
       </c>
       <c r="F11" t="str">
-        <v>172718-5121</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -613,10 +613,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>15:16:42</v>
+        <v>16:46:00</v>
       </c>
       <c r="F12" t="str">
-        <v>r</v>
+        <v>172718-5121</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -630,10 +630,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>15:13:58</v>
+        <v>16:37:28</v>
       </c>
       <c r="F13" t="str">
-        <v>c</v>
+        <v>172718-5121</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -647,10 +647,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>15:13:30</v>
+        <v>16:36:52</v>
       </c>
       <c r="F14" t="str">
-        <v>a</v>
+        <v>r</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -664,10 +664,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>15:12:58</v>
+        <v>16:21:42</v>
       </c>
       <c r="F15" t="str">
-        <v>227028-8400</v>
+        <v>r</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -681,7 +681,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>15:12:56</v>
+        <v>16:20:13</v>
       </c>
       <c r="F16" t="str">
         <v>172718-5121</v>
@@ -698,10 +698,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>15:10:51</v>
+        <v>16:18:39</v>
       </c>
       <c r="F17" t="str">
-        <v>227028-8400</v>
+        <v>r</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -715,7 +715,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>15:10:46</v>
+        <v>16:11:13</v>
       </c>
       <c r="F18" t="str">
         <v>172718-5121</v>
@@ -732,7 +732,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>15:08:24</v>
+        <v>16:08:27</v>
       </c>
       <c r="F19" t="str">
         <v>172718-5121</v>
@@ -749,7 +749,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B20" t="str">
-        <v>14:55:15</v>
+        <v>16:07:55</v>
       </c>
       <c r="F20" t="str">
         <v>172718-5121</v>
@@ -766,7 +766,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B21" t="str">
-        <v>14:52:05</v>
+        <v>16:06:11</v>
       </c>
       <c r="F21" t="str">
         <v>172718-5121</v>
@@ -783,21 +783,208 @@
         <v>17/12/2025</v>
       </c>
       <c r="B22" t="str">
+        <v>16:00:22</v>
+      </c>
+      <c r="F22" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B23" t="str">
+        <v>15:16:42</v>
+      </c>
+      <c r="F23" t="str">
+        <v>r</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B24" t="str">
+        <v>15:13:58</v>
+      </c>
+      <c r="F24" t="str">
+        <v>c</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B25" t="str">
+        <v>15:13:30</v>
+      </c>
+      <c r="F25" t="str">
+        <v>a</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B26" t="str">
+        <v>15:12:58</v>
+      </c>
+      <c r="F26" t="str">
+        <v>227028-8400</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B27" t="str">
+        <v>15:12:56</v>
+      </c>
+      <c r="F27" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B28" t="str">
+        <v>15:10:51</v>
+      </c>
+      <c r="F28" t="str">
+        <v>227028-8400</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B29" t="str">
+        <v>15:10:46</v>
+      </c>
+      <c r="F29" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B30" t="str">
+        <v>15:08:24</v>
+      </c>
+      <c r="F30" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B31" t="str">
+        <v>14:55:15</v>
+      </c>
+      <c r="F31" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B32" t="str">
+        <v>14:52:05</v>
+      </c>
+      <c r="F32" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B33" t="str">
         <v>14:50:29</v>
       </c>
-      <c r="F22" t="str">
-        <v>172718-5121</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
+      <c r="F33" t="str">
+        <v>172718-5121</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
@@ -443,21 +443,72 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>17:51:23</v>
+        <v>18:15:25</v>
       </c>
       <c r="F2" t="str">
-        <v>r</v>
+        <v>I</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>18:11:53</v>
+      </c>
+      <c r="F3" t="str">
+        <v>UL1569AWG22SKYBLUE(BARE)</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>18:09:41</v>
+      </c>
+      <c r="F4" t="str">
+        <v>c</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B5" t="str">
+        <v>17:51:23</v>
+      </c>
+      <c r="F5" t="str">
+        <v>r</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
@@ -443,10 +443,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>18:15:25</v>
+        <v>18:54:37</v>
       </c>
       <c r="F2" t="str">
-        <v>I</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -460,10 +460,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>18:11:53</v>
+        <v>18:15:25</v>
       </c>
       <c r="F3" t="str">
-        <v>UL1569AWG22SKYBLUE(BARE)</v>
+        <v>I</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -477,10 +477,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>18:09:41</v>
+        <v>18:11:53</v>
       </c>
       <c r="F4" t="str">
-        <v>c</v>
+        <v>UL1569AWG22SKYBLUE(BARE)</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -494,21 +494,38 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>17:51:23</v>
+        <v>18:09:41</v>
       </c>
       <c r="F5" t="str">
-        <v>r</v>
+        <v>c</v>
       </c>
       <c r="G5" t="str">
         <v/>
       </c>
       <c r="H5" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>17:51:23</v>
+      </c>
+      <c r="F6" t="str">
+        <v>r</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,10 +443,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>18:54:37</v>
+        <v>18:59:40</v>
       </c>
       <c r="F2" t="str">
-        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
+        <v>c</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -460,10 +460,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>18:15:25</v>
+        <v>18:54:37</v>
       </c>
       <c r="F3" t="str">
-        <v>I</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -477,10 +477,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>18:11:53</v>
+        <v>18:15:25</v>
       </c>
       <c r="F4" t="str">
-        <v>UL1569AWG22SKYBLUE(BARE)</v>
+        <v>I</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -494,10 +494,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>18:09:41</v>
+        <v>18:11:53</v>
       </c>
       <c r="F5" t="str">
-        <v>c</v>
+        <v>UL1569AWG22SKYBLUE(BARE)</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -511,10 +511,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>17:51:23</v>
+        <v>18:09:41</v>
       </c>
       <c r="F6" t="str">
-        <v>r</v>
+        <v>c</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,9 +523,26 @@
         <v>NOT_MATCHED</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B7" t="str">
+        <v>17:51:23</v>
+      </c>
+      <c r="F7" t="str">
+        <v>r</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-17.xlsx
+++ b/history-error-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,13 +440,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>17/12/2025</v>
+        <v>18/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>18:59:40</v>
+        <v>01:20:01</v>
       </c>
       <c r="F2" t="str">
-        <v>c</v>
+        <v>172718-5121</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -460,10 +460,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>18:54:37</v>
+        <v>18:59:40</v>
       </c>
       <c r="F3" t="str">
-        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
+        <v>c</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -477,10 +477,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>18:15:25</v>
+        <v>18:54:37</v>
       </c>
       <c r="F4" t="str">
-        <v>I</v>
+        <v>UL1569AWG22ORANGE/BLUE(BARE)</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -494,10 +494,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>18:11:53</v>
+        <v>18:15:25</v>
       </c>
       <c r="F5" t="str">
-        <v>UL1569AWG22SKYBLUE(BARE)</v>
+        <v>I</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -511,10 +511,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>18:09:41</v>
+        <v>18:11:53</v>
       </c>
       <c r="F6" t="str">
-        <v>c</v>
+        <v>UL1569AWG22SKYBLUE(BARE)</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -528,21 +528,38 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
+        <v>18:09:41</v>
+      </c>
+      <c r="F7" t="str">
+        <v>c</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B8" t="str">
         <v>17:51:23</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F8" t="str">
         <v>r</v>
       </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H8"/>
   </ignoredErrors>
 </worksheet>
 </file>